--- a/results/I2_N10_T30_C400_0_P4_res.xlsx
+++ b/results/I2_N10_T30_C400_0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198.2574223937857</v>
+        <v>94.4371278619396</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.01199984550476074</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16742239378572</v>
+        <v>33.0671278619396</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.09</v>
+        <v>61.37</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>24.69770569366316</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.34885527085025</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>20.34885527085025</v>
       </c>
     </row>
     <row r="9">
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.66758337047728</v>
+        <v>27.27819014430416</v>
       </c>
     </row>
     <row r="15">
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>177.7200000000015</v>
+        <v>109.9450000000008</v>
       </c>
     </row>
     <row r="8">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>191.3600000000015</v>
+        <v>117.5900000000008</v>
       </c>
     </row>
     <row r="9">
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>187.3050000000015</v>
+        <v>113.2700000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>192.2</v>
+        <v>119.1550000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>188.4700000000015</v>
+        <v>115.8050000000008</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>67.77500000000072</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="13">
@@ -1289,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>73.77000000000072</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>74.03500000000074</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="15">
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>73.04500000000073</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>72.66500000000073</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="17">
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>46.91999999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>36.10499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>34.91499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>37.48999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="33">
@@ -1509,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="34">
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="35">
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="37">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>260.7950000000024</v>
+        <v>193.0200000000017</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>276.0800000000024</v>
+        <v>202.3100000000017</v>
       </c>
     </row>
     <row r="39">
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>265.2800000000024</v>
+        <v>191.2450000000017</v>
       </c>
     </row>
     <row r="40">
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>281.9700000000025</v>
+        <v>208.9250000000017</v>
       </c>
     </row>
     <row r="41">
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>270.3250000000024</v>
+        <v>197.6600000000017</v>
       </c>
     </row>
     <row r="42">
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>318.7450000000017</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1729,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>334.7600000000017</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="54">
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>327.0100000000016</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1751,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>342.6250000000018</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>323.2400000000017</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>154.3</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="63">
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>148.3449999999993</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="64">
@@ -1850,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>128.7049999999993</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="65">
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>146.3249999999993</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="66">
@@ -1872,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>134.2149999999993</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="67">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>318.7450000000017</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="68">
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>334.7600000000017</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="69">
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>327.0100000000016</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="70">
@@ -1916,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>342.6250000000018</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>323.2400000000017</v>
+        <v>250.575000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2241,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2252,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>10.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2263,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2274,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
